--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1182699.199349981</v>
+        <v>1180154.022934499</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.6159374908558</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D11" t="n">
         <v>313.106111847757</v>
@@ -1385,7 +1385,7 @@
         <v>369.3447958805275</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>180.437962685114</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y11" t="n">
         <v>344.6610088831276</v>
@@ -1528,7 +1528,7 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D13" t="n">
         <v>107.0385432452864</v>
@@ -1546,7 +1546,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691215</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712138</v>
+        <v>47.35522289712137</v>
       </c>
       <c r="S13" t="n">
         <v>148.1920955585159</v>
@@ -1582,7 +1582,7 @@
         <v>177.9720195032432</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6349084326869</v>
+        <v>115.9373386665189</v>
       </c>
       <c r="V13" t="n">
         <v>210.5607135509021</v>
@@ -1594,7 +1594,7 @@
         <v>184.1327256161112</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.9800451387028</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>313.106111847757</v>
@@ -1616,13 +1616,13 @@
         <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
         <v>369.3447958805275</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>41.68484788282412</v>
       </c>
       <c r="U14" t="n">
-        <v>109.8499584118999</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V14" t="n">
         <v>286.175328697209</v>
@@ -1765,10 +1765,10 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>104.0108648048201</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>104.8570328736432</v>
@@ -1777,7 +1777,7 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
-        <v>43.10653161705579</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H16" t="n">
         <v>103.1780851413948</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.0873498782453</v>
+        <v>332.0618795246038</v>
       </c>
       <c r="C17" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321308</v>
       </c>
       <c r="D17" t="n">
-        <v>304.0110794818061</v>
+        <v>304.0110794818062</v>
       </c>
       <c r="E17" t="n">
-        <v>331.2584079333849</v>
+        <v>331.258407933385</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>356.2040836028347</v>
       </c>
       <c r="G17" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145767</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9358022484436</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.51579964929894</v>
+        <v>58.51579964929907</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2460080007432</v>
+        <v>16.08349333125017</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3232098200251</v>
+        <v>200.3232098200252</v>
       </c>
       <c r="V17" t="n">
-        <v>277.080296331258</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>298.5690065785361</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X17" t="n">
-        <v>319.0591385395921</v>
+        <v>319.0591385395923</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.5659765171767</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C19" t="n">
-        <v>116.5748589597509</v>
+        <v>116.5748589597511</v>
       </c>
       <c r="D19" t="n">
-        <v>97.94351087933546</v>
+        <v>97.94351087933558</v>
       </c>
       <c r="E19" t="n">
-        <v>95.76200050769228</v>
+        <v>95.76200050769239</v>
       </c>
       <c r="F19" t="n">
-        <v>94.74908588405435</v>
+        <v>94.74908588405447</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3538461201513</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H19" t="n">
-        <v>94.08305277544389</v>
+        <v>94.083052775444</v>
       </c>
       <c r="I19" t="n">
-        <v>45.6804582709612</v>
+        <v>45.68045827096133</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26019053117044</v>
+        <v>38.26019053117057</v>
       </c>
       <c r="S19" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T19" t="n">
-        <v>168.8769871372923</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U19" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667361</v>
       </c>
       <c r="V19" t="n">
-        <v>201.4656811849511</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W19" t="n">
-        <v>235.8510361977141</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X19" t="n">
-        <v>175.0376932501603</v>
+        <v>175.0376932501604</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.9126912132179</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.0618795246037</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321308</v>
       </c>
       <c r="D20" t="n">
-        <v>304.0110794818061</v>
+        <v>304.0110794818062</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>331.258407933385</v>
       </c>
       <c r="F20" t="n">
-        <v>327.8528848655639</v>
+        <v>356.2040836028347</v>
       </c>
       <c r="G20" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145767</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9358022484436</v>
+        <v>243.9358022484437</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.51579964929894</v>
+        <v>58.51579964929907</v>
       </c>
       <c r="T20" t="n">
-        <v>153.2460080007432</v>
+        <v>27.45248409617728</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3232098200251</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>277.080296331258</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X20" t="n">
-        <v>319.0591385395921</v>
+        <v>319.0591385395923</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.5659765171767</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C22" t="n">
-        <v>116.5748589597509</v>
+        <v>116.5748589597511</v>
       </c>
       <c r="D22" t="n">
-        <v>97.94351087933546</v>
+        <v>97.94351087933558</v>
       </c>
       <c r="E22" t="n">
-        <v>95.76200050769228</v>
+        <v>95.76200050769239</v>
       </c>
       <c r="F22" t="n">
-        <v>94.74908588405435</v>
+        <v>94.74908588405447</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3538461201513</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H22" t="n">
-        <v>94.08305277544389</v>
+        <v>94.083052775444</v>
       </c>
       <c r="I22" t="n">
-        <v>45.6804582709612</v>
+        <v>45.68045827096133</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26019053117044</v>
+        <v>38.26019053117057</v>
       </c>
       <c r="S22" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T22" t="n">
-        <v>168.8769871372923</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U22" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667361</v>
       </c>
       <c r="V22" t="n">
-        <v>201.4656811849511</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W22" t="n">
-        <v>235.8510361977141</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X22" t="n">
-        <v>175.0376932501603</v>
+        <v>175.0376932501604</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.9126912132179</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0618795246037</v>
+        <v>332.0618795246038</v>
       </c>
       <c r="C23" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321308</v>
       </c>
       <c r="D23" t="n">
-        <v>304.0110794818061</v>
+        <v>304.0110794818062</v>
       </c>
       <c r="E23" t="n">
-        <v>331.2584079333849</v>
+        <v>331.258407933385</v>
       </c>
       <c r="F23" t="n">
-        <v>356.2040836028345</v>
+        <v>356.2040836028347</v>
       </c>
       <c r="G23" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145767</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9358022484436</v>
+        <v>243.9358022484437</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.51579964929896</v>
+        <v>58.51579964929906</v>
       </c>
       <c r="T23" t="n">
-        <v>153.2460080007433</v>
+        <v>153.2460080007434</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3232098200251</v>
+        <v>200.3232098200252</v>
       </c>
       <c r="V23" t="n">
-        <v>277.080296331258</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W23" t="n">
-        <v>298.5690065785361</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X23" t="n">
-        <v>319.0591385395921</v>
+        <v>319.0591385395923</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.5659765171767</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C25" t="n">
-        <v>116.5748589597509</v>
+        <v>116.5748589597511</v>
       </c>
       <c r="D25" t="n">
-        <v>97.94351087933546</v>
+        <v>97.94351087933558</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76200050769228</v>
+        <v>95.76200050769239</v>
       </c>
       <c r="F25" t="n">
-        <v>94.74908588405435</v>
+        <v>94.74908588405447</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3538461201513</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H25" t="n">
-        <v>94.08305277544389</v>
+        <v>94.083052775444</v>
       </c>
       <c r="I25" t="n">
-        <v>45.68045827096122</v>
+        <v>45.68045827096132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.26019053117045</v>
+        <v>38.26019053117055</v>
       </c>
       <c r="S25" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T25" t="n">
-        <v>168.8769871372923</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U25" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667361</v>
       </c>
       <c r="V25" t="n">
-        <v>201.4656811849511</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W25" t="n">
-        <v>235.8510361977141</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X25" t="n">
-        <v>175.0376932501603</v>
+        <v>175.0376932501604</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.9126912132179</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124594</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145384</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124555</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536669</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1968.280031686382</v>
+        <v>1977.863014088347</v>
       </c>
       <c r="C11" t="n">
-        <v>1724.223529170366</v>
+        <v>1650.897395908466</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.954729324146</v>
+        <v>1334.628596062247</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486434</v>
+        <v>990.8372422245343</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573573</v>
+        <v>621.848236195458</v>
       </c>
       <c r="G11" t="n">
-        <v>322.098818062885</v>
+        <v>248.7726848009855</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="T11" t="n">
-        <v>3161.624972753925</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.091394788292</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="V11" t="n">
-        <v>2661.025406205253</v>
+        <v>2968.246063313759</v>
       </c>
       <c r="W11" t="n">
-        <v>2661.025406205253</v>
+        <v>2657.474306804176</v>
       </c>
       <c r="X11" t="n">
-        <v>2661.025406205253</v>
+        <v>2326.005447303627</v>
       </c>
       <c r="Y11" t="n">
-        <v>2312.882972989972</v>
+        <v>1977.863014088347</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>670.696104950713</v>
+        <v>797.6353891180885</v>
       </c>
       <c r="C13" t="n">
-        <v>670.696104950713</v>
+        <v>670.6961049507129</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989085</v>
+        <v>562.5763642989084</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770467</v>
+        <v>456.6601694770466</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396676</v>
+        <v>351.7671207396675</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749178</v>
+        <v>226.0611828749177</v>
       </c>
       <c r="H13" t="n">
         <v>121.8408948533068</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543155</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783888</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020816</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
@@ -5212,7 +5212,7 @@
         <v>1523.552954957888</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353499</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P13" t="n">
         <v>2137.812375262355</v>
@@ -5230,19 +5230,19 @@
         <v>1879.29157132554</v>
       </c>
       <c r="U13" t="n">
-        <v>1632.185603211715</v>
+        <v>1762.183148430067</v>
       </c>
       <c r="V13" t="n">
-        <v>1419.49801376636</v>
+        <v>1549.495558984711</v>
       </c>
       <c r="W13" t="n">
-        <v>1172.077742489931</v>
+        <v>1302.075287708282</v>
       </c>
       <c r="X13" t="n">
-        <v>986.0850903524445</v>
+        <v>1116.082635570796</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.3476710204214</v>
+        <v>937.2869551877969</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1426.613439690468</v>
+        <v>1724.223529170366</v>
       </c>
       <c r="C14" t="n">
-        <v>1099.647821510588</v>
+        <v>1724.223529170366</v>
       </c>
       <c r="D14" t="n">
-        <v>783.3790216643687</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E14" t="n">
-        <v>439.5876678266557</v>
+        <v>1064.163375486434</v>
       </c>
       <c r="F14" t="n">
-        <v>439.5876678266557</v>
+        <v>695.1743694573572</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>322.098818062885</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3161.624972753925</v>
+        <v>3215.20614494445</v>
       </c>
       <c r="U14" t="n">
-        <v>3050.66541880251</v>
+        <v>3003.672566978817</v>
       </c>
       <c r="V14" t="n">
-        <v>2761.599430219471</v>
+        <v>2714.606578395777</v>
       </c>
       <c r="W14" t="n">
-        <v>2450.827673709889</v>
+        <v>2403.834821886195</v>
       </c>
       <c r="X14" t="n">
-        <v>2119.35881420934</v>
+        <v>2072.365962385646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1771.216380994059</v>
+        <v>1724.223529170366</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>715.4714023816775</v>
+        <v>667.6378438997367</v>
       </c>
       <c r="C16" t="n">
-        <v>588.5321182143018</v>
+        <v>562.5763642989084</v>
       </c>
       <c r="D16" t="n">
-        <v>480.4123775624973</v>
+        <v>562.5763642989084</v>
       </c>
       <c r="E16" t="n">
-        <v>374.4961827406355</v>
+        <v>456.6601694770465</v>
       </c>
       <c r="F16" t="n">
-        <v>269.6031340032564</v>
+        <v>351.7671207396675</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749178</v>
+        <v>226.0611828749177</v>
       </c>
       <c r="H16" t="n">
         <v>121.8408948533068</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>152.7959093543157</v>
@@ -5452,34 +5452,34 @@
         <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q16" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.583831890066</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S16" t="n">
-        <v>2106.894846477423</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.125129807481</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U16" t="n">
-        <v>1680.019161693656</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V16" t="n">
-        <v>1467.3315722483</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W16" t="n">
-        <v>1219.911300971871</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X16" t="n">
-        <v>1033.918648834385</v>
+        <v>986.085090352444</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.122968451386</v>
+        <v>807.2894099694452</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.265634422428</v>
+        <v>1749.667938820804</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.486917622296</v>
+        <v>1431.889222020671</v>
       </c>
       <c r="D17" t="n">
-        <v>1011.405019155825</v>
+        <v>1124.807323554201</v>
       </c>
       <c r="E17" t="n">
-        <v>676.8005666978604</v>
+        <v>790.2028710962359</v>
       </c>
       <c r="F17" t="n">
-        <v>676.8005666978604</v>
+        <v>430.4007664469073</v>
       </c>
       <c r="G17" t="n">
-        <v>312.9119166831366</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5519,10 +5519,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,7 +5531,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3266.498953276546</v>
+        <v>3266.498953276545</v>
       </c>
       <c r="T17" t="n">
-        <v>3111.705005801048</v>
+        <v>3250.253000416697</v>
       </c>
       <c r="U17" t="n">
-        <v>2909.358329215163</v>
+        <v>3047.906323830813</v>
       </c>
       <c r="V17" t="n">
-        <v>2629.479242011872</v>
+        <v>3047.906323830813</v>
       </c>
       <c r="W17" t="n">
-        <v>2327.894386882038</v>
+        <v>2746.321468700978</v>
       </c>
       <c r="X17" t="n">
-        <v>2005.612428761238</v>
+        <v>2424.039510580178</v>
       </c>
       <c r="Y17" t="n">
-        <v>1666.656896925706</v>
+        <v>2085.083978744646</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,16 +5595,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.3270794598496</v>
+        <v>733.3270794598504</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5746966722224</v>
+        <v>615.5746966722231</v>
       </c>
       <c r="D19" t="n">
-        <v>516.6418574001664</v>
+        <v>516.6418574001669</v>
       </c>
       <c r="E19" t="n">
-        <v>419.9125639580529</v>
+        <v>419.9125639580534</v>
       </c>
       <c r="F19" t="n">
-        <v>324.2064166004222</v>
+        <v>324.2064166004226</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6873801154209</v>
+        <v>207.6873801154211</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6539934735584</v>
+        <v>112.6539934735585</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7999913966071</v>
+        <v>161.799991396607</v>
       </c>
       <c r="K19" t="n">
-        <v>377.0921261845054</v>
+        <v>415.9524168629713</v>
       </c>
       <c r="L19" t="n">
-        <v>743.8171671504897</v>
+        <v>782.6774578289554</v>
       </c>
       <c r="M19" t="n">
-        <v>1138.139455267527</v>
+        <v>1176.999745945992</v>
       </c>
       <c r="N19" t="n">
-        <v>1529.71307449088</v>
+        <v>1568.573365169345</v>
       </c>
       <c r="O19" t="n">
-        <v>1829.042673411293</v>
+        <v>1879.207915928783</v>
       </c>
       <c r="P19" t="n">
-        <v>2111.81541636244</v>
+        <v>2111.815416362442</v>
       </c>
       <c r="Q19" t="n">
-        <v>2239.590955032443</v>
+        <v>2239.590955032445</v>
       </c>
       <c r="R19" t="n">
-        <v>2200.944297930251</v>
+        <v>2200.944297930253</v>
       </c>
       <c r="S19" t="n">
-        <v>2060.442213897357</v>
+        <v>2060.442213897359</v>
       </c>
       <c r="T19" t="n">
-        <v>1889.859398607163</v>
+        <v>1889.859398607164</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.940331873086</v>
+        <v>1651.940331873087</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.439643807479</v>
+        <v>1448.43964380748</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.206273910798</v>
+        <v>1210.206273910799</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.40052315306</v>
+        <v>1033.400523153061</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.7917441498097</v>
+        <v>863.7917441498106</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.825712131701</v>
+        <v>1996.067739071757</v>
       </c>
       <c r="C20" t="n">
-        <v>1315.046995331568</v>
+        <v>1678.289022271625</v>
       </c>
       <c r="D20" t="n">
-        <v>1007.965096865098</v>
+        <v>1371.207123805154</v>
       </c>
       <c r="E20" t="n">
-        <v>1007.965096865098</v>
+        <v>1036.602671347189</v>
       </c>
       <c r="F20" t="n">
-        <v>676.8005666978615</v>
+        <v>676.8005666978611</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9119166831366</v>
+        <v>312.9119166831367</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3266.498953276548</v>
+        <v>3266.498953276545</v>
       </c>
       <c r="T20" t="n">
-        <v>3111.70500580105</v>
+        <v>3238.769171361215</v>
       </c>
       <c r="U20" t="n">
-        <v>2909.358329215166</v>
+        <v>3238.769171361215</v>
       </c>
       <c r="V20" t="n">
-        <v>2629.479242011875</v>
+        <v>2958.890084157924</v>
       </c>
       <c r="W20" t="n">
-        <v>2629.479242011875</v>
+        <v>2657.305229028089</v>
       </c>
       <c r="X20" t="n">
-        <v>2307.197283891075</v>
+        <v>2335.023270907289</v>
       </c>
       <c r="Y20" t="n">
-        <v>1968.241752055543</v>
+        <v>1996.067739071757</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.3270794598496</v>
+        <v>733.3270794598504</v>
       </c>
       <c r="C22" t="n">
-        <v>615.5746966722224</v>
+        <v>615.5746966722231</v>
       </c>
       <c r="D22" t="n">
-        <v>516.6418574001664</v>
+        <v>516.6418574001669</v>
       </c>
       <c r="E22" t="n">
-        <v>419.9125639580529</v>
+        <v>419.9125639580534</v>
       </c>
       <c r="F22" t="n">
-        <v>324.2064166004222</v>
+        <v>324.2064166004226</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6873801154209</v>
+        <v>207.6873801154211</v>
       </c>
       <c r="H22" t="n">
-        <v>112.6539934735584</v>
+        <v>112.6539934735585</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>122.939700718141</v>
+        <v>161.799991396607</v>
       </c>
       <c r="K22" t="n">
-        <v>377.0921261845054</v>
+        <v>415.9524168629713</v>
       </c>
       <c r="L22" t="n">
-        <v>743.8171671504897</v>
+        <v>743.8171671504917</v>
       </c>
       <c r="M22" t="n">
-        <v>1087.974212750039</v>
+        <v>1138.139455267529</v>
       </c>
       <c r="N22" t="n">
-        <v>1479.547831973392</v>
+        <v>1479.547831973393</v>
       </c>
       <c r="O22" t="n">
-        <v>1829.042673411293</v>
+        <v>1829.042673411295</v>
       </c>
       <c r="P22" t="n">
-        <v>2111.81541636244</v>
+        <v>2111.815416362442</v>
       </c>
       <c r="Q22" t="n">
-        <v>2239.590955032443</v>
+        <v>2239.590955032445</v>
       </c>
       <c r="R22" t="n">
-        <v>2200.944297930251</v>
+        <v>2200.944297930253</v>
       </c>
       <c r="S22" t="n">
-        <v>2060.442213897357</v>
+        <v>2060.442213897359</v>
       </c>
       <c r="T22" t="n">
-        <v>1889.859398607163</v>
+        <v>1889.859398607164</v>
       </c>
       <c r="U22" t="n">
-        <v>1651.940331873086</v>
+        <v>1651.940331873087</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.439643807479</v>
+        <v>1448.43964380748</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.206273910798</v>
+        <v>1210.206273910799</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.40052315306</v>
+        <v>1033.400523153061</v>
       </c>
       <c r="Y22" t="n">
-        <v>863.7917441498097</v>
+        <v>863.7917441498106</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2009.635634624202</v>
+        <v>2009.635634624203</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.85691782407</v>
+        <v>1691.856917824071</v>
       </c>
       <c r="D23" t="n">
-        <v>1384.775019357599</v>
+        <v>1384.7750193576</v>
       </c>
       <c r="E23" t="n">
         <v>1050.170566899635</v>
       </c>
       <c r="F23" t="n">
-        <v>690.3684622503069</v>
+        <v>690.3684622503074</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4798122355833</v>
+        <v>326.4798122355834</v>
       </c>
       <c r="H23" t="n">
-        <v>80.08001198463019</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="I23" t="n">
-        <v>80.08001198463019</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="J23" t="n">
-        <v>268.9591429436556</v>
+        <v>436.3647919640087</v>
       </c>
       <c r="K23" t="n">
-        <v>602.778516633502</v>
+        <v>770.1841656538552</v>
       </c>
       <c r="L23" t="n">
-        <v>1053.812729881911</v>
+        <v>1221.218378902264</v>
       </c>
       <c r="M23" t="n">
-        <v>2032.363032711739</v>
+        <v>1754.750283574188</v>
       </c>
       <c r="N23" t="n">
-        <v>2579.141849770521</v>
+        <v>2734.502555800835</v>
       </c>
       <c r="O23" t="n">
-        <v>3301.922804561847</v>
+        <v>3237.475026680172</v>
       </c>
       <c r="P23" t="n">
-        <v>3696.697170919024</v>
+        <v>3632.24939303735</v>
       </c>
       <c r="Q23" t="n">
-        <v>3944.983532674707</v>
+        <v>3880.535754793033</v>
       </c>
       <c r="R23" t="n">
-        <v>4004.000599231509</v>
+        <v>4004.000599231511</v>
       </c>
       <c r="S23" t="n">
-        <v>3944.893730898884</v>
+        <v>3944.893730898886</v>
       </c>
       <c r="T23" t="n">
-        <v>3790.099783423386</v>
+        <v>3790.099783423387</v>
       </c>
       <c r="U23" t="n">
-        <v>3587.753106837502</v>
+        <v>3587.753106837504</v>
       </c>
       <c r="V23" t="n">
-        <v>3307.874019634211</v>
+        <v>3307.874019634213</v>
       </c>
       <c r="W23" t="n">
-        <v>3006.289164504376</v>
+        <v>3006.289164504378</v>
       </c>
       <c r="X23" t="n">
-        <v>2684.007206383576</v>
+        <v>2684.007206383578</v>
       </c>
       <c r="Y23" t="n">
         <v>2345.051674548045</v>
@@ -6063,25 +6063,25 @@
         <v>99.08730358309225</v>
       </c>
       <c r="I24" t="n">
-        <v>80.08001198463019</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="J24" t="n">
-        <v>173.7572814752475</v>
+        <v>173.7572814752476</v>
       </c>
       <c r="K24" t="n">
-        <v>412.0214804555945</v>
+        <v>412.0214804555947</v>
       </c>
       <c r="L24" t="n">
-        <v>778.7196407682598</v>
+        <v>778.7196407682601</v>
       </c>
       <c r="M24" t="n">
         <v>1225.995965990576</v>
       </c>
       <c r="N24" t="n">
-        <v>1699.51900954503</v>
+        <v>1699.519009545031</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.480288963085</v>
+        <v>2110.480288963086</v>
       </c>
       <c r="P24" t="n">
         <v>2420.979880439188</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.8949750122964</v>
+        <v>746.8949750122972</v>
       </c>
       <c r="C25" t="n">
-        <v>629.1425922246692</v>
+        <v>629.1425922246699</v>
       </c>
       <c r="D25" t="n">
-        <v>530.2097529526131</v>
+        <v>530.2097529526137</v>
       </c>
       <c r="E25" t="n">
-        <v>433.4804595104997</v>
+        <v>433.4804595105002</v>
       </c>
       <c r="F25" t="n">
-        <v>337.774312152869</v>
+        <v>337.7743121528694</v>
       </c>
       <c r="G25" t="n">
-        <v>221.2552756678677</v>
+        <v>221.2552756678679</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2218890260052</v>
+        <v>126.2218890260053</v>
       </c>
       <c r="I25" t="n">
-        <v>80.08001198463019</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="J25" t="n">
-        <v>125.2026444315657</v>
+        <v>136.50759627059</v>
       </c>
       <c r="K25" t="n">
-        <v>340.4947792194642</v>
+        <v>390.6600217369544</v>
       </c>
       <c r="L25" t="n">
-        <v>707.2198201854485</v>
+        <v>757.3850627029385</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.542108302486</v>
+        <v>1151.707350819976</v>
       </c>
       <c r="N25" t="n">
-        <v>1493.115727525838</v>
+        <v>1493.11572752584</v>
       </c>
       <c r="O25" t="n">
-        <v>1842.61056896374</v>
+        <v>1842.610568963742</v>
       </c>
       <c r="P25" t="n">
-        <v>2125.383311914887</v>
+        <v>2125.383311914889</v>
       </c>
       <c r="Q25" t="n">
-        <v>2253.15885058489</v>
+        <v>2253.158850584892</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.512193482698</v>
+        <v>2214.512193482699</v>
       </c>
       <c r="S25" t="n">
-        <v>2074.010109449804</v>
+        <v>2074.010109449805</v>
       </c>
       <c r="T25" t="n">
-        <v>1903.427294159609</v>
+        <v>1903.427294159611</v>
       </c>
       <c r="U25" t="n">
-        <v>1665.508227425533</v>
+        <v>1665.508227425534</v>
       </c>
       <c r="V25" t="n">
-        <v>1462.007539359925</v>
+        <v>1462.007539359927</v>
       </c>
       <c r="W25" t="n">
-        <v>1223.774169463245</v>
+        <v>1223.774169463246</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.968418705507</v>
+        <v>1046.968418705508</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.3596397022565</v>
+        <v>877.3596397022574</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>1921.876785462656</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2468.655602521439</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2971.628073400776</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6294,22 @@
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803187</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6370,40 +6370,40 @@
         <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302709</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277853</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297368</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611206</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960313</v>
@@ -6625,10 +6625,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>3336.058965299584</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3730.833331656761</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3979.119693412444</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1909.315497911347</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N35" t="n">
-        <v>2642.103738532152</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O35" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
         <v>449.4840331913842</v>
@@ -7084,13 +7084,13 @@
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697161</v>
@@ -7160,52 +7160,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455608</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.879634793969</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N38" t="n">
-        <v>2265.111559082035</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O38" t="n">
-        <v>3145.076209411489</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P38" t="n">
-        <v>3539.850575768667</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960313</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.429937623798</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N41" t="n">
-        <v>2580.208754682581</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O41" t="n">
-        <v>3083.181225561917</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P41" t="n">
-        <v>3477.955591919095</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
@@ -7451,10 +7451,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7564,19 +7564,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2200.835586644151</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N44" t="n">
-        <v>2747.614403702933</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O44" t="n">
-        <v>3250.58687458227</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7819,10 +7819,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>204.9758093342901</v>
+        <v>204.9758093342911</v>
       </c>
       <c r="L8" t="n">
-        <v>217.0161097528865</v>
+        <v>217.0161097528876</v>
       </c>
       <c r="M8" t="n">
-        <v>209.4829058762138</v>
+        <v>209.482905876215</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2121457970546</v>
+        <v>208.2121457970559</v>
       </c>
       <c r="O8" t="n">
-        <v>210.0787859308338</v>
+        <v>210.078785930835</v>
       </c>
       <c r="P8" t="n">
-        <v>214.1468792646046</v>
+        <v>214.1468792646056</v>
       </c>
       <c r="Q8" t="n">
-        <v>209.4747279587409</v>
+        <v>209.4747279587417</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.8313713882157</v>
+        <v>120.8313713882161</v>
       </c>
       <c r="K9" t="n">
-        <v>127.5757920412209</v>
+        <v>127.5757920412215</v>
       </c>
       <c r="L9" t="n">
-        <v>124.7509506187529</v>
+        <v>124.7509506187537</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0260831566819</v>
+        <v>126.0260831566829</v>
       </c>
       <c r="N9" t="n">
-        <v>114.8074317919419</v>
+        <v>114.8074317919429</v>
       </c>
       <c r="O9" t="n">
-        <v>127.4706082116731</v>
+        <v>127.4706082116739</v>
       </c>
       <c r="P9" t="n">
-        <v>121.8347508378855</v>
+        <v>121.8347508378862</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.8667351544939</v>
+        <v>131.8667351544944</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.9607951918621</v>
+        <v>126.9607951918626</v>
       </c>
       <c r="M10" t="n">
-        <v>130.5711623489678</v>
+        <v>130.5711623489683</v>
       </c>
       <c r="N10" t="n">
-        <v>119.5295770947141</v>
+        <v>119.5295770947146</v>
       </c>
       <c r="O10" t="n">
-        <v>130.9231825035964</v>
+        <v>130.9231825035969</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2819166079674</v>
+        <v>131.2819166079678</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>222.0287716282717</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.09876553704633</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>167.736966642838</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>306.6874953089242</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>209.1187564935612</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.8351763665433</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>19.40311602546622</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>187.8883066283064</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>274.8351763665431</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>190.2350110279875</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>131.2335379367258</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>187.8883066283058</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.118756493562</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>105.7385611944683</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>82.08002450722579</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>72.59287192928048</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.697569766168</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.027678440466071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>120.6561924838701</v>
       </c>
       <c r="U14" t="n">
-        <v>99.56828377407615</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>21.65902652088181</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>81.34234686904648</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712139</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.9745296463584</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>356.2040836028345</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>243.9358022484437</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>137.1625146694932</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>332.0618795246038</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>331.2584079333849</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>28.3511987372707</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>125.7935239045661</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>200.3232098200252</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>298.5690065785361</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-4.121147867408581e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450218385609332e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.287947609147523e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859613.9232601715</v>
+        <v>859613.9232601717</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874491.1997210509</v>
+        <v>874491.1997210507</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874491.1997210511</v>
+        <v>874491.1997210507</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956494.3574594384</v>
+        <v>956494.3574594386</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
-        <v>512053.6228727417</v>
+        <v>512053.6228727414</v>
       </c>
       <c r="E2" t="n">
-        <v>472141.5665666519</v>
+        <v>472141.5665666517</v>
       </c>
       <c r="F2" t="n">
-        <v>472141.5665666522</v>
+        <v>472141.566566652</v>
       </c>
       <c r="G2" t="n">
+        <v>480406.72015603</v>
+      </c>
+      <c r="H2" t="n">
         <v>480406.7201560303</v>
       </c>
-      <c r="H2" t="n">
-        <v>480406.7201560306</v>
-      </c>
       <c r="I2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651776</v>
       </c>
       <c r="J2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="K2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="L2" t="n">
         <v>513151.1061651765</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="N2" t="n">
         <v>513151.1061651766</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651765</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25312.06338852257</v>
+        <v>25312.06338852105</v>
       </c>
       <c r="E3" t="n">
-        <v>1133284.321149372</v>
+        <v>1133284.321149373</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7276.025892760754</v>
+        <v>7276.025892760481</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45099.85441502718</v>
+        <v>45099.85441502777</v>
       </c>
       <c r="J3" t="n">
-        <v>33793.44926224782</v>
+        <v>33793.44926224775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7276.025892760782</v>
+        <v>7276.025892760668</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30304.08340211328</v>
+        <v>30304.0834021134</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>423023.1125599513</v>
+        <v>423023.1125599517</v>
       </c>
       <c r="E4" t="n">
         <v>52395.73565602441</v>
       </c>
       <c r="F4" t="n">
-        <v>52395.73565602439</v>
+        <v>52395.73565602441</v>
       </c>
       <c r="G4" t="n">
-        <v>59938.40278207087</v>
+        <v>59938.40278207084</v>
       </c>
       <c r="H4" t="n">
-        <v>59938.40278207088</v>
+        <v>59938.40278207081</v>
       </c>
       <c r="I4" t="n">
-        <v>81400.49192835829</v>
+        <v>81400.49192835823</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="K4" t="n">
         <v>80755.36360646595</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646595</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34271.91803061345</v>
+        <v>34271.91803061341</v>
       </c>
       <c r="E5" t="n">
         <v>77801.67147047342</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.67147047342</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="G5" t="n">
         <v>78566.28174644653</v>
       </c>
       <c r="H5" t="n">
-        <v>78566.28174644656</v>
+        <v>78566.28174644652</v>
       </c>
       <c r="I5" t="n">
-        <v>88877.88236630608</v>
+        <v>88877.88236630609</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47521.60225547307</v>
+        <v>47517.18867760495</v>
       </c>
       <c r="C6" t="n">
-        <v>47521.60225547312</v>
+        <v>47517.18867760495</v>
       </c>
       <c r="D6" t="n">
-        <v>29446.52889365441</v>
+        <v>29442.13896048558</v>
       </c>
       <c r="E6" t="n">
-        <v>-791340.1617092179</v>
+        <v>-791504.1998676136</v>
       </c>
       <c r="F6" t="n">
-        <v>341944.1594401542</v>
+        <v>341780.12128176</v>
       </c>
       <c r="G6" t="n">
-        <v>334626.0097347521</v>
+        <v>334495.0321907155</v>
       </c>
       <c r="H6" t="n">
-        <v>341902.035627513</v>
+        <v>341771.0580834764</v>
       </c>
       <c r="I6" t="n">
-        <v>297772.8774554858</v>
+        <v>297772.8774554855</v>
       </c>
       <c r="J6" t="n">
         <v>309224.3516216568</v>
       </c>
       <c r="K6" t="n">
-        <v>343017.8008839045</v>
+        <v>343017.8008839049</v>
       </c>
       <c r="L6" t="n">
-        <v>335741.7749911436</v>
+        <v>335741.7749911437</v>
       </c>
       <c r="M6" t="n">
-        <v>135829.2325918316</v>
+        <v>135829.2325918314</v>
       </c>
       <c r="N6" t="n">
-        <v>343017.8008839045</v>
+        <v>343017.8008839046</v>
       </c>
       <c r="O6" t="n">
-        <v>312713.7174817913</v>
+        <v>312713.7174817911</v>
       </c>
       <c r="P6" t="n">
-        <v>343017.8008839047</v>
+        <v>343017.8008839044</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G2" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="H2" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="I2" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296391998</v>
+        <v>29.55587296391821</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1001.000149807877</v>
+        <v>1001.000149807878</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.095032365950942</v>
+        <v>9.095032365950821</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.88010425264162</v>
+        <v>37.88010425264174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950978</v>
+        <v>9.095032365950836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264159</v>
+        <v>37.88010425264175</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296391998</v>
+        <v>29.55587296391821</v>
       </c>
       <c r="E3" t="n">
-        <v>1060.220827629378</v>
+        <v>1060.22082762938</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.5986944055842</v>
+        <v>169.5986944055851</v>
       </c>
       <c r="J4" t="n">
-        <v>13.33631140073737</v>
+        <v>13.33631140073669</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950942</v>
+        <v>9.095032365950821</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264162</v>
+        <v>37.88010425264174</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27871,10 +27871,10 @@
         <v>338.2579615771069</v>
       </c>
       <c r="I8" t="n">
-        <v>205.8951748269224</v>
+        <v>205.8951748269227</v>
       </c>
       <c r="J8" t="n">
-        <v>1.86479579492808</v>
+        <v>1.864795794928684</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>142.4054431468991</v>
+        <v>142.4054431468995</v>
       </c>
       <c r="S8" t="n">
-        <v>206.3125139875908</v>
+        <v>206.3125139875909</v>
       </c>
       <c r="T8" t="n">
-        <v>222.5757256087562</v>
+        <v>222.5757256087563</v>
       </c>
       <c r="U8" t="n">
         <v>251.3361475014561</v>
@@ -27950,7 +27950,7 @@
         <v>111.6214628000196</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20782527814364</v>
+        <v>87.20782527814377</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.21073096700869</v>
+        <v>96.21073096700893</v>
       </c>
       <c r="S9" t="n">
         <v>170.5023303302322</v>
@@ -28026,16 +28026,16 @@
         <v>167.9376818826222</v>
       </c>
       <c r="H10" t="n">
-        <v>161.7533094950016</v>
+        <v>161.7533094950017</v>
       </c>
       <c r="I10" t="n">
-        <v>153.8476744721001</v>
+        <v>153.8476744721002</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59104857502678</v>
+        <v>89.591048575027</v>
       </c>
       <c r="K10" t="n">
-        <v>16.07729417868781</v>
+        <v>16.07729417868818</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.69910643414246</v>
+        <v>81.69910643414273</v>
       </c>
       <c r="R10" t="n">
-        <v>174.8969430545539</v>
+        <v>174.8969430545541</v>
       </c>
       <c r="S10" t="n">
-        <v>223.087768389893</v>
+        <v>223.0877683898931</v>
       </c>
       <c r="T10" t="n">
         <v>227.717863849707</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292596</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="C17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="D17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="F17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="G17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="H17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="T17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="U17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="V17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="W17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="X17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="C19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="D19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="F19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="G19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="H19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="I19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="J19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="K19" t="n">
-        <v>11.41914327173939</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="L19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="M19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="N19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>11.4191432717422</v>
       </c>
       <c r="P19" t="n">
-        <v>50.67196213887689</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="R19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="S19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="T19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="U19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="V19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="W19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="X19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887678</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="D20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="E20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="F20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="G20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="H20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="T20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="U20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="V20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="W20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="X20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="C22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="D22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="E22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="F22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="G22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="I22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="J22" t="n">
-        <v>11.41914327173934</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="K22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="L22" t="n">
-        <v>50.67196213887689</v>
+        <v>11.41914327174175</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="N22" t="n">
-        <v>50.67196213887689</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="P22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="R22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="S22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="T22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="U22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="V22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="W22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="X22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="C23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="D23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="E23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="F23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="T23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="U23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="V23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="W23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="X23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="C25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="D25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="E25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="F25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="G25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="H25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="I25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.41914327174164</v>
       </c>
       <c r="K25" t="n">
-        <v>11.41914327173961</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="L25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="M25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="N25" t="n">
-        <v>50.67196213887689</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="P25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="R25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="S25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="T25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="U25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="V25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="W25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="X25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.67196213887689</v>
+        <v>50.67196213887677</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859301</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859159</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1188175797544521</v>
+        <v>0.118817579754445</v>
       </c>
       <c r="H8" t="n">
-        <v>1.216840538660283</v>
+        <v>1.21684053866021</v>
       </c>
       <c r="I8" t="n">
-        <v>4.580714743483519</v>
+        <v>4.580714743483244</v>
       </c>
       <c r="J8" t="n">
-        <v>10.08449355968444</v>
+        <v>10.08449355968383</v>
       </c>
       <c r="K8" t="n">
-        <v>15.1140417106904</v>
+        <v>15.11404171068949</v>
       </c>
       <c r="L8" t="n">
-        <v>18.75030521710071</v>
+        <v>18.75030521709959</v>
       </c>
       <c r="M8" t="n">
-        <v>20.86332735105895</v>
+        <v>20.8633273510577</v>
       </c>
       <c r="N8" t="n">
-        <v>21.20091779953629</v>
+        <v>21.20091779953502</v>
       </c>
       <c r="O8" t="n">
-        <v>20.01942549085296</v>
+        <v>20.01942549085176</v>
       </c>
       <c r="P8" t="n">
-        <v>17.08611649066492</v>
+        <v>17.08611649066389</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.8309619157086</v>
+        <v>12.83096191570783</v>
       </c>
       <c r="R8" t="n">
-        <v>7.463674794250608</v>
+        <v>7.463674794250161</v>
       </c>
       <c r="S8" t="n">
-        <v>2.70755559865458</v>
+        <v>2.707555598654418</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5201239553751144</v>
+        <v>0.5201239553750832</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009505406380356166</v>
+        <v>0.009505406380355597</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06357300977145053</v>
+        <v>0.06357300977144673</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6139814364769038</v>
+        <v>0.6139814364768671</v>
       </c>
       <c r="I9" t="n">
-        <v>2.188807573271433</v>
+        <v>2.188807573271302</v>
       </c>
       <c r="J9" t="n">
-        <v>6.006255278450947</v>
+        <v>6.006255278450588</v>
       </c>
       <c r="K9" t="n">
-        <v>10.26564693313813</v>
+        <v>10.26564693313752</v>
       </c>
       <c r="L9" t="n">
-        <v>13.80342916112131</v>
+        <v>13.80342916112048</v>
       </c>
       <c r="M9" t="n">
-        <v>16.10795076533639</v>
+        <v>16.10795076533542</v>
       </c>
       <c r="N9" t="n">
-        <v>16.53428029139143</v>
+        <v>16.53428029139043</v>
       </c>
       <c r="O9" t="n">
-        <v>15.12563623277139</v>
+        <v>15.12563623277048</v>
       </c>
       <c r="P9" t="n">
-        <v>12.13965657644479</v>
+        <v>12.13965657644407</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.115038931527616</v>
+        <v>8.115038931527129</v>
       </c>
       <c r="R9" t="n">
-        <v>3.947103185634447</v>
+        <v>3.947103185634211</v>
       </c>
       <c r="S9" t="n">
-        <v>1.18084077360567</v>
+        <v>1.180840773605599</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2562438420173817</v>
+        <v>0.2562438420173663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004182434853384905</v>
+        <v>0.004182434853384654</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05329747583657701</v>
+        <v>0.05329747583657382</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4738630124379305</v>
+        <v>0.4738630124379021</v>
       </c>
       <c r="I10" t="n">
-        <v>1.602800455158153</v>
+        <v>1.602800455158057</v>
       </c>
       <c r="J10" t="n">
-        <v>3.768131541645994</v>
+        <v>3.768131541645769</v>
       </c>
       <c r="K10" t="n">
-        <v>6.192197647195036</v>
+        <v>6.192197647194666</v>
       </c>
       <c r="L10" t="n">
-        <v>7.923881089376187</v>
+        <v>7.923881089375713</v>
       </c>
       <c r="M10" t="n">
-        <v>8.354621598637248</v>
+        <v>8.354621598636747</v>
       </c>
       <c r="N10" t="n">
-        <v>8.155967370519104</v>
+        <v>8.155967370518615</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533355948246361</v>
+        <v>7.53335594824591</v>
       </c>
       <c r="P10" t="n">
-        <v>6.446087441180184</v>
+        <v>6.446087441179798</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.462936817551917</v>
+        <v>4.46293681755165</v>
       </c>
       <c r="R10" t="n">
-        <v>2.396448322615544</v>
+        <v>2.396448322615401</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9288296470792554</v>
+        <v>0.9288296470791998</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2277255785744653</v>
+        <v>0.2277255785744517</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002907135045631476</v>
+        <v>0.002907135045631302</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q13" t="n">
         <v>119.9711683108196</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.25037875194312</v>
+        <v>96.25037875194297</v>
       </c>
       <c r="K19" t="n">
-        <v>217.466802816059</v>
+        <v>256.7196216831963</v>
       </c>
       <c r="L19" t="n">
-        <v>370.429334309075</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M19" t="n">
-        <v>398.3053415323607</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N19" t="n">
-        <v>395.528908306417</v>
+        <v>395.5289083064168</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>313.7722734943819</v>
       </c>
       <c r="P19" t="n">
-        <v>285.6290332839873</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.0662006767705</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>56.99755988480556</v>
+        <v>96.25037875194297</v>
       </c>
       <c r="K22" t="n">
-        <v>256.7196216831965</v>
+        <v>256.7196216831963</v>
       </c>
       <c r="L22" t="n">
-        <v>370.429334309075</v>
+        <v>331.1765154419398</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N22" t="n">
-        <v>395.528908306417</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>353.0250923615167</v>
+        <v>353.0250923615165</v>
       </c>
       <c r="P22" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.0662006767705</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>730.0817725164907</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>124.7119640792711</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>56.99755988480786</v>
       </c>
       <c r="K25" t="n">
-        <v>217.4668028160591</v>
+        <v>256.7196216831964</v>
       </c>
       <c r="L25" t="n">
-        <v>370.429334309075</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M25" t="n">
-        <v>398.3053415323607</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N25" t="n">
-        <v>395.528908306417</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>353.0250923615166</v>
       </c>
       <c r="P25" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.0662006767705</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>706.6580824730645</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>858.9893307218357</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>761.4205919064725</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>730.4252907588755</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>79.01631456769094</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>740.1901420412177</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>782.8881772547622</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>527.426297583388</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>683.5353733496371</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412328</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>586.6502928476776</v>
       </c>
       <c r="Q41" t="n">
-        <v>459.9130612972814</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>504.50054741384</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412314</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
